--- a/documents/meeting_notes.xlsx
+++ b/documents/meeting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonim\Documents\GitHub\Backend-Web-Development\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1BA7F-FFD8-4969-A4EE-7D85AD47B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7B14D-5E81-492A-8C54-CC75A4FC3DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12150" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Päivämäärä</t>
   </si>
@@ -49,13 +49,16 @@
   <si>
     <t>Joni Mitronen, Teemu Tupola, Niko Laaksonen</t>
   </si>
+  <si>
+    <t>Palautettiin kanban ja github. Käytiin läpi miten projektia aletaan tekemään. Alustava työnjako tehty.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-FI,1]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-FI,1]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,14 +103,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +431,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -436,7 +444,7 @@
     </row>
     <row r="4" spans="1:3" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A22" si="0">IF(A3+1&lt;=DATE(2025,5,9), A3+1, "")</f>
+        <f t="shared" ref="A4:A18" si="0">IF(A3+1&lt;=DATE(2025,5,9), A3+1, "")</f>
         <v>45771</v>
       </c>
       <c r="C4" s="5"/>

--- a/documents/meeting_notes.xlsx
+++ b/documents/meeting_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonim\Documents\GitHub\Backend-Web-Development\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7B14D-5E81-492A-8C54-CC75A4FC3DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDE1E9E-51B5-4E2C-889E-93DF00DD0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12150" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Päivämäärä</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Palautettiin kanban ja github. Käytiin läpi miten projektia aletaan tekemään. Alustava työnjako tehty.</t>
+  </si>
+  <si>
+    <t>Kaikki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hommat etenee, tehtiin ekat merget kaikilta. API yhteys toimii, log in ja register toimii ja arvostelun crud operaatiot toimii. Seuraavaksi, poimitaan api datasta arvot muuttujiin ja tallennetaan tietokantaan (aluksi joka kerta ku serveri käynnistyy, myöhemmi joku logiikka). Käyttäjäoikeuksien selvittäminen. Kansiorakenne sovittiin. Arvostelun kirjoittaminen toimii tällä hetkellä 'dummy' tiedoilla, seuraavaksi toiminta tietokannan mukaan. </t>
   </si>
 </sst>
 </file>
@@ -103,15 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -402,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +434,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -440,7 +443,12 @@
         <f>IF(A2+1&lt;=DATE(2025,5,9), A2+1, "")</f>
         <v>45770</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
